--- a/src/test/TestData/Testdata.xlsx
+++ b/src/test/TestData/Testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>URL</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>AssertionValues</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,12 +389,18 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
